--- a/Data Rak Depan.xlsx
+++ b/Data Rak Depan.xlsx
@@ -23,7 +23,7 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>No Resi</t>
+    <t>No SAP</t>
   </si>
   <si>
     <t>Nama Sparepart</t>
